--- a/biology/Botanique/Cerfeuil_penché/Cerfeuil_penché.xlsx
+++ b/biology/Botanique/Cerfeuil_penché/Cerfeuil_penché.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cerfeuil_pench%C3%A9</t>
+          <t>Cerfeuil_penché</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chaerophyllum temulum · Cerfeuil enivrant, Cerfeuil des fous
 Le Cerfeuil penché (ou Chaerophyllum temulum) est une plante à fleurs, de la famille des Apiaceae. Il est aussi connu sous le nom de Cerfeuil enivrant ou Cerfeuil des fous.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cerfeuil_pench%C3%A9</t>
+          <t>Cerfeuil_penché</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Plante bisannuelle de 60 à 100 cm, à tiges dressées, ramifiées, pourpres ou tachetées de pourpre, couvertes de poils raides.
 Feuilles : plumeuses, vert sombre, glauques (pouvant virer au violacé), bi ou tripennées, à folioles lancéolées avec un bord denticulé.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cerfeuil_pench%C3%A9</t>
+          <t>Cerfeuil_penché</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Toxicité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Toutes les parties de cette plante sont toxiques tant pour l'homme que pour le bétail. Leur ingestion provoque des paralysies[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Toutes les parties de cette plante sont toxiques tant pour l'homme que pour le bétail. Leur ingestion provoque des paralysies.
 </t>
         </is>
       </c>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cerfeuil_pench%C3%A9</t>
+          <t>Cerfeuil_penché</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On trouve généralement cette plante dans des zones herbeuses, des lisières forestières, des haies.
 </t>
